--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Libros Desarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>Tutoria reproductor de musica WPF</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ahE2BC8oZQQ&amp;index=13&amp;list=PLyekCPhBviGHmn_F7Vi9qzCDuFk1tAtOH</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +466,15 @@
       <c r="C5">
         <v>29</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ahE2BC8oZQQ&amp;index=13&amp;list=PLyekCPhBviGHmn_F7Vi9qzCDuFk1tAtOH</t>
+  </si>
+  <si>
+    <t>Tutorial Windows 8 Apps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HjavqXkPn48</t>
+  </si>
+  <si>
+    <t>Tutorial Enterprice MVVM in WPF</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>ReproductorMusica</t>
+  </si>
+  <si>
+    <t>Enterprice MVVM</t>
   </si>
 </sst>
 </file>
@@ -411,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,9 +441,10 @@
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="58.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -439,10 +458,13 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,11 +477,11 @@
       <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,26 +495,47 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,7 +543,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,12 +551,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Libros" sheetId="1" r:id="rId1"/>
+    <sheet name="Video tutoriales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Paginas</t>
   </si>
   <si>
-    <t>Tutoriales</t>
-  </si>
-  <si>
     <t>Tutorial 1 - Visual Studio 2008, Linq to SQL, C#, and WPF</t>
   </si>
   <si>
@@ -93,13 +91,19 @@
   </si>
   <si>
     <t>Enterprice MVVM</t>
+  </si>
+  <si>
+    <t>Tutoriales MVVM y WPF</t>
+  </si>
+  <si>
+    <t>Tutoriales HTML5 , CSS3, JavaScript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,27 +112,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.9"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -136,18 +169,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I11"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,123 +620,74 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>277</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>199</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>28</v>
       </c>
     </row>
@@ -568,4 +695,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -97,13 +97,25 @@
   </si>
   <si>
     <t>Tutoriales HTML5 , CSS3, JavaScript</t>
+  </si>
+  <si>
+    <t>asp.net mvc tutorial for beginners</t>
+  </si>
+  <si>
+    <t>Tutoriales MVC ASP</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duQ1Pvr-oW0&amp;list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v&amp;index=4</t>
+  </si>
+  <si>
+    <t>PruebaMVC5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -284,10 +304,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,6 +331,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,14 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -699,10 +733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N12"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,18 +758,18 @@
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -745,18 +779,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -768,18 +802,18 @@
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -789,18 +823,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -812,16 +846,16 @@
       <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -833,81 +867,172 @@
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="E8:N8"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -918,7 +1043,17 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>
+    <hyperlink ref="E17" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -968,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>27</v>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Libros" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>PruebaMVC5</t>
+  </si>
+  <si>
+    <t>Professional Microsoft SQL Server 2014 Integration Services</t>
   </si>
 </sst>
 </file>
@@ -194,28 +197,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -300,6 +281,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -308,43 +315,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,12 +355,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -639,90 +647,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
     <col min="6" max="6" width="58.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="19">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -749,228 +765,228 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>14</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -987,67 +1003,67 @@
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="E8:N8"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Libros" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -112,6 +112,39 @@
   </si>
   <si>
     <t>Professional Microsoft SQL Server 2014 Integration Services</t>
+  </si>
+  <si>
+    <t>Tutoriales Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>SQL Server Integration Services (SSIS)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3cPq9FXk-RA&amp;list=PLNIs-AWhQzcmPg_uV2BZi_KRG4LKs6cRs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL08903FB7ACA1C2FB</t>
+  </si>
+  <si>
+    <t>SQL Server Management Studio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kTPJBAtv29k&amp;list=PL7A29088C98E92D5F</t>
+  </si>
+  <si>
+    <t>SQL Server Reporting Services</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ctUiHZHr-5M&amp;list=PLnp7cSt9cmDahTGmUf6QcYP_uuEQmOJVV</t>
+  </si>
+  <si>
+    <t>SQL Server Analisis Services</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FfbNRJijLCE&amp;list=PLw73ChdqTNfYDLqwUPgmkx8j0jZllCzK2</t>
+  </si>
+  <si>
+    <t>SQL Server Analisis Services 2 (Avanzado)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -341,24 +374,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -366,6 +381,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -649,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -664,10 +704,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -726,7 +766,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2">
@@ -734,10 +774,10 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>10</v>
       </c>
     </row>
@@ -749,16 +789,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
@@ -774,18 +814,18 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -795,18 +835,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -818,18 +858,18 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -839,18 +879,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -862,16 +902,16 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -883,78 +923,78 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
@@ -966,18 +1006,18 @@
       <c r="D16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -989,81 +1029,231 @@
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
     <mergeCell ref="E18:N18"/>
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>SQL Server Analisis Services 2 (Avanzado)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7d11OwhIe54</t>
+  </si>
+  <si>
+    <t>Developing ASP.NET MVC 4.5 Web Applications Jump Start</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -343,12 +349,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,9 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -384,28 +436,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -704,10 +779,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -766,7 +841,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2">
@@ -774,10 +849,10 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>10</v>
       </c>
     </row>
@@ -791,14 +866,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
@@ -814,18 +889,18 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -835,18 +910,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -858,18 +933,18 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -879,18 +954,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -902,16 +977,16 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -923,104 +998,104 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="6">
@@ -1029,107 +1104,113 @@
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="E18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="19"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="19"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1139,18 +1220,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -1160,18 +1241,18 @@
         <v>1</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1181,18 +1262,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1202,36 +1283,51 @@
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="E23:N23"/>
@@ -1239,27 +1335,13 @@
     <mergeCell ref="E25:N25"/>
     <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>
     <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Libros" sheetId="1" r:id="rId1"/>
     <sheet name="Video tutoriales" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -439,55 +442,83 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -764,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +884,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="12">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -889,18 +920,18 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -910,18 +941,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -933,18 +964,18 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -954,18 +985,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -977,16 +1008,16 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -998,78 +1029,78 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -1081,18 +1112,18 @@
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
@@ -1104,18 +1135,18 @@
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -1125,48 +1156,48 @@
         <v>2</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -1178,18 +1209,18 @@
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
@@ -1220,18 +1251,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -1241,18 +1272,18 @@
         <v>1</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1262,18 +1293,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1283,51 +1314,36 @@
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="E23:N23"/>
@@ -1335,6 +1351,21 @@
     <mergeCell ref="E25:N25"/>
     <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -442,6 +442,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,39 +462,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -796,7 +796,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>29</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -920,18 +920,18 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -941,18 +941,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -964,18 +964,18 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -985,18 +985,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1008,16 +1008,16 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -1029,78 +1029,78 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -1112,18 +1112,18 @@
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
@@ -1135,18 +1135,18 @@
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -1156,48 +1156,48 @@
         <v>2</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -1209,18 +1209,18 @@
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
@@ -1230,18 +1230,18 @@
         <v>1</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1251,18 +1251,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -1272,18 +1272,18 @@
         <v>1</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1293,18 +1293,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1314,36 +1314,51 @@
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="E23:N23"/>
@@ -1351,21 +1366,6 @@
     <mergeCell ref="E25:N25"/>
     <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -442,48 +442,48 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -920,18 +920,18 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -941,18 +941,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -964,18 +964,18 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -985,18 +985,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1008,16 +1008,16 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -1029,78 +1029,78 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -1112,18 +1112,18 @@
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
@@ -1135,18 +1135,18 @@
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -1156,48 +1156,48 @@
         <v>2</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -1209,18 +1209,18 @@
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
@@ -1230,18 +1230,18 @@
         <v>1</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1251,18 +1251,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -1272,18 +1272,18 @@
         <v>1</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1293,18 +1293,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1314,51 +1314,36 @@
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="E23:N23"/>
@@ -1366,6 +1351,21 @@
     <mergeCell ref="E25:N25"/>
     <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -442,6 +442,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,39 +462,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -920,18 +920,18 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -941,18 +941,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -964,18 +964,18 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -985,18 +985,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1008,16 +1008,16 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -1029,78 +1029,78 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -1112,18 +1112,18 @@
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
@@ -1135,18 +1135,18 @@
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -1156,48 +1156,48 @@
         <v>2</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -1209,18 +1209,18 @@
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
@@ -1230,18 +1230,18 @@
         <v>1</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1251,18 +1251,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -1272,18 +1272,18 @@
         <v>1</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1293,18 +1293,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1314,36 +1314,51 @@
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="E23:N23"/>
@@ -1351,21 +1366,6 @@
     <mergeCell ref="E25:N25"/>
     <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Página de C# pro 5.0</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Developing ASP.NET MVC 4.5 Web Applications Jump Start</t>
+  </si>
+  <si>
+    <t>Cobol ANSI 74</t>
+  </si>
+  <si>
+    <t>PM Book</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -235,46 +241,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF002060"/>
       </left>
@@ -323,32 +289,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,84 +346,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -793,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,84 +747,97 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="30">
         <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="30">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="30">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="30">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="30">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="30">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="32">
         <v>84</v>
       </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -911,454 +863,439 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="27" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="E23:N23"/>
@@ -1366,6 +1303,21 @@
     <mergeCell ref="E25:N25"/>
     <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://www.youtube.com/playlist?list=PL6n9fhu94yhVm6S8I2xd6nYz2ZORd7X2v"/>
